--- a/code/stats/two_way_lmm/data/example_data.xlsx
+++ b/code/stats/two_way_lmm/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ken\GitHub\CampbellMuscleLab\howtos\howtos_making_figures\code\stats\two_way_lmm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2BA2A-43D7-4DC9-A2F6-0C3DD04FE51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A03DF-1865-4E5C-AFFA-0258C8D46D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="1110" windowWidth="24915" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="2250" windowWidth="24915" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,7 +477,7 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,7 +493,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,11 +506,8 @@
       <c r="D2">
         <v>1.8147199999999999</v>
       </c>
-      <c r="I2">
-        <v>1.8147199999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,11 +520,8 @@
       <c r="D3">
         <v>1.9057900000000001</v>
       </c>
-      <c r="I3">
-        <v>1.9057900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,11 +534,8 @@
       <c r="D4">
         <v>1.1269899999999999</v>
       </c>
-      <c r="I4">
-        <v>1.1269899999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,11 +548,8 @@
       <c r="D5">
         <v>1.9133800000000001</v>
       </c>
-      <c r="I5">
-        <v>1.9133800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,11 +562,8 @@
       <c r="D6">
         <v>1.63236</v>
       </c>
-      <c r="I6">
-        <v>1.63236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,11 +576,8 @@
       <c r="D7">
         <v>1.4975399999999999</v>
       </c>
-      <c r="I7">
-        <v>1.4975399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,11 +590,8 @@
       <c r="D8">
         <v>1.6784999999999999</v>
       </c>
-      <c r="I8">
-        <v>1.6784999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -625,11 +604,8 @@
       <c r="D9">
         <v>1.9468799999999999</v>
       </c>
-      <c r="I9">
-        <v>1.9468799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,11 +618,8 @@
       <c r="D10">
         <v>2.35751</v>
       </c>
-      <c r="I10">
-        <v>2.35751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,11 +632,8 @@
       <c r="D11">
         <v>2.3648899999999999</v>
       </c>
-      <c r="I11">
-        <v>2.3648899999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -676,11 +646,8 @@
       <c r="D12">
         <v>1.35761</v>
       </c>
-      <c r="I12">
-        <v>1.35761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,11 +660,8 @@
       <c r="D13">
         <v>2.1705899999999998</v>
       </c>
-      <c r="I13">
-        <v>2.1705899999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -710,11 +674,8 @@
       <c r="D14">
         <v>2.1571699999999998</v>
       </c>
-      <c r="I14">
-        <v>2.1571699999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -727,11 +688,8 @@
       <c r="D15">
         <v>1.6853799999999999</v>
       </c>
-      <c r="I15">
-        <v>1.6853799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,11 +702,8 @@
       <c r="D16">
         <v>2.0002800000000001</v>
       </c>
-      <c r="I16">
-        <v>2.0002800000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,11 +716,8 @@
       <c r="D17">
         <v>0.94189000000000001</v>
       </c>
-      <c r="I17">
-        <v>0.94189000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,11 +730,8 @@
       <c r="D18">
         <v>1.34</v>
       </c>
-      <c r="I18">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,11 +744,8 @@
       <c r="D19">
         <v>1.71574</v>
       </c>
-      <c r="I19">
-        <v>1.71574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,11 +758,8 @@
       <c r="D20">
         <v>1.5922100000000001</v>
       </c>
-      <c r="I20">
-        <v>1.5922100000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,61 +772,58 @@
       <c r="D21">
         <v>1.75949</v>
       </c>
-      <c r="I21">
-        <v>1.75949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
